--- a/QualityRules_CityJSON.xlsx
+++ b/QualityRules_CityJSON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATURUNEN\Work Folders\FME+DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F661B9-4AC4-4874-A7FC-A297449F7F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3682BF-BE6B-4F07-8712-67DD4775000C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{6FE9F777-6649-4D3C-B271-CDD8A66E49D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="272">
   <si>
     <t>QUALITY ELEMENT</t>
   </si>
@@ -915,6 +915,62 @@
   <si>
     <t>ValidateGeometry -&gt;
 CheckAreaAndVolume TestIfAreaSmallerThan</t>
+  </si>
+  <si>
+    <t>SurfacesWronglyOriented</t>
+  </si>
+  <si>
+    <t>ValidateGeometry23</t>
+  </si>
+  <si>
+    <t>ValidateGeometry -&gt; CheckNormals</t>
+  </si>
+  <si>
+    <t>Is the every surface of the feature logically oriented based on vertex normals and depending on the feature type?</t>
+  </si>
+  <si>
+    <t>The normal of the face is not logically oriented.</t>
+  </si>
+  <si>
+    <t>All normals of the faces must be logically oriented.</t>
+  </si>
+  <si>
+    <t>Z-Normals of the RoofSurfaces must be more than 0 to be upwards
+Z-Normals of the GroundSurfacez must be exactly -1 to be downwards and horizontal
+Z-normals of the WallSurfacez must be between -0.1 and 0.1 to be mostly vertical.</t>
+  </si>
+  <si>
+    <t>ValidateGeometry22</t>
+  </si>
+  <si>
+    <t>GeometryValidator -&gt; CheckNormals</t>
+  </si>
+  <si>
+    <t>MinGroundHigherThanMinRoof</t>
+  </si>
+  <si>
+    <t>CompareRoofToFloor</t>
+  </si>
+  <si>
+    <t>Is the minimum height of the roof higher than minimum height of the floor?</t>
+  </si>
+  <si>
+    <t>The minimum height of the roof cannot be smaller than minimum height of the ground.</t>
+  </si>
+  <si>
+    <t>The maximum height of the floor must be smaller than maximum height of the roof.</t>
+  </si>
+  <si>
+    <t>MaxGroundHigherThanMaxRoof</t>
+  </si>
+  <si>
+    <t>Is maximum height of the roof higher than maximum height of the floor?</t>
+  </si>
+  <si>
+    <t>The maximum height of the floor cannot be smaller than maximum height of the roof.</t>
+  </si>
+  <si>
+    <t>ValidateGeometry24</t>
   </si>
 </sst>
 </file>
@@ -1255,6 +1311,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1264,23 +1329,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1290,7 +1346,145 @@
     <cellStyle name="Normaali 2" xfId="3" xr:uid="{7E3974D2-0DBE-4F5E-9E3D-6576F2D20CDD}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1691,12 +1885,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F47F029-A215-4390-BD70-0FA320C2B170}" name="Table2" displayName="Table2" ref="A5:C17" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Normaali 2" dataCellStyle="Normaali 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F47F029-A215-4390-BD70-0FA320C2B170}" name="Table2" displayName="Table2" ref="A5:C17" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowCellStyle="Normaali 2" dataCellStyle="Normaali 2">
   <autoFilter ref="A5:C17" xr:uid="{C38A5F96-A0AA-4876-B4C5-E49F96B5CEDA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F199324-BC17-4B16-8679-AB40CD4CC31A}" name="Excel Column Name" dataDxfId="45" dataCellStyle="Normaali 2"/>
-    <tableColumn id="2" xr3:uid="{3560AFFA-3F2B-4245-9538-C1649867110F}" name="Column Description" dataDxfId="44" dataCellStyle="Normaali 2"/>
-    <tableColumn id="3" xr3:uid="{95B4044B-30D4-47CE-AE75-E6B0AB8A1CDE}" name="More info" dataDxfId="43" dataCellStyle="Normaali 2">
+    <tableColumn id="1" xr3:uid="{6F199324-BC17-4B16-8679-AB40CD4CC31A}" name="Excel Column Name" dataDxfId="65" dataCellStyle="Normaali 2"/>
+    <tableColumn id="2" xr3:uid="{3560AFFA-3F2B-4245-9538-C1649867110F}" name="Column Description" dataDxfId="64" dataCellStyle="Normaali 2"/>
+    <tableColumn id="3" xr3:uid="{95B4044B-30D4-47CE-AE75-E6B0AB8A1CDE}" name="More info" dataDxfId="63" dataCellStyle="Normaali 2">
       <calculatedColumnFormula>HYPERLINK("")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1705,11 +1899,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8C90D32-6635-456E-8479-2F97FE9D02D7}" name="Table24" displayName="Table24" ref="A22:B27" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="Normaali 2" dataCellStyle="Normaali 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8C90D32-6635-456E-8479-2F97FE9D02D7}" name="Table24" displayName="Table24" ref="A22:B27" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="Normaali 2" dataCellStyle="Normaali 2">
   <autoFilter ref="A22:B27" xr:uid="{E861418B-8CA0-4956-8281-E50B007FE59E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF37DB37-B34B-4CFD-82AF-66DCB0433FA6}" name="Link" dataDxfId="40" dataCellStyle="Normaali 2"/>
-    <tableColumn id="2" xr3:uid="{96312410-A187-46F8-BAA1-0EAE24590084}" name="Link Description" dataDxfId="39" dataCellStyle="Normaali 2"/>
+    <tableColumn id="1" xr3:uid="{DF37DB37-B34B-4CFD-82AF-66DCB0433FA6}" name="Link" dataDxfId="60" dataCellStyle="Normaali 2"/>
+    <tableColumn id="2" xr3:uid="{96312410-A187-46F8-BAA1-0EAE24590084}" name="Link Description" dataDxfId="59" dataCellStyle="Normaali 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2028,23 +2222,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
@@ -2059,11 +2253,11 @@
       <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2244,10 +2438,10 @@
       <c r="H18" s="43"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2284,7 +2478,7 @@
       <c r="C24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="str">
+      <c r="A25" s="52" t="str">
         <f>HYPERLINK("https://docs.ogc.org/cs/20-072r2/20-072r2.html", "OGC CityGML Standard")</f>
         <v>OGC CityGML Standard</v>
       </c>
@@ -2333,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD580389-2C7D-4A84-8EED-658C64708058}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,23 +2587,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2445,7 +2639,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
@@ -2479,7 +2673,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="12" t="s">
         <v>131</v>
       </c>
@@ -2515,7 +2709,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="12" t="s">
         <v>84</v>
       </c>
@@ -2547,23 +2741,23 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="59" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2601,8 +2795,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -2637,7 +2831,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="12" t="s">
         <v>91</v>
       </c>
@@ -2668,28 +2862,28 @@
       <c r="K10" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="59" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2727,7 +2921,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2763,7 +2957,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="12" t="s">
         <v>108</v>
       </c>
@@ -2799,7 +2993,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="12" t="s">
         <v>226</v>
       </c>
@@ -2835,7 +3029,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>227</v>
       </c>
@@ -2871,7 +3065,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12" t="s">
         <v>228</v>
       </c>
@@ -2907,23 +3101,25 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="59" t="s">
+        <v>104</v>
+      </c>
       <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
@@ -2959,7 +3155,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +3191,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
@@ -3029,7 +3225,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
@@ -3063,7 +3259,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="12" t="s">
         <v>42</v>
       </c>
@@ -3096,8 +3292,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
       <c r="B24" s="40" t="s">
         <v>45</v>
       </c>
@@ -3133,7 +3329,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="40" t="s">
         <v>48</v>
       </c>
@@ -3144,7 +3340,7 @@
         <v>107</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -3167,7 +3363,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="40" t="s">
         <v>51</v>
       </c>
@@ -3201,7 +3397,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="40" t="s">
         <v>50</v>
       </c>
@@ -3235,7 +3431,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="40" t="s">
         <v>49</v>
       </c>
@@ -3269,7 +3465,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="40" t="s">
         <v>52</v>
       </c>
@@ -3303,7 +3499,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="206.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="40" t="s">
         <v>67</v>
       </c>
@@ -3339,7 +3535,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="40" t="s">
         <v>66</v>
       </c>
@@ -3375,7 +3571,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="40" t="s">
         <v>24</v>
       </c>
@@ -3411,7 +3607,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="40" t="s">
         <v>248</v>
       </c>
@@ -3447,7 +3643,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="40" t="s">
         <v>75</v>
       </c>
@@ -3483,7 +3679,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="40" t="s">
         <v>25</v>
       </c>
@@ -3517,7 +3713,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="40" t="s">
         <v>80</v>
       </c>
@@ -3551,7 +3747,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="40" t="s">
         <v>114</v>
       </c>
@@ -3584,17 +3780,121 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="59"/>
+      <c r="B38" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="59"/>
+      <c r="B40" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37">
+        <v>1</v>
+      </c>
+    </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="59"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
+      <c r="A47" s="59"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
+      <c r="A48" s="59"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
+      <c r="A49" s="59"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
@@ -3620,6 +3920,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A19:A40"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A18:J18"/>
@@ -3627,102 +3929,172 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A37"/>
-    <mergeCell ref="A46:A49"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="D54:D55">
-    <cfRule type="cellIs" dxfId="38" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="177" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D55">
-    <cfRule type="cellIs" dxfId="37" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="176" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="cellIs" dxfId="36" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="174" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="175" operator="equal">
       <formula>"Discard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G6 G34:G1048576 G8:G32">
-    <cfRule type="cellIs" dxfId="34" priority="90" operator="equal">
+  <conditionalFormatting sqref="G1:G6 G34:G37 G8:G32 G41:G1048576">
+    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="111" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F6 F34:F1048576 F8:F32">
-    <cfRule type="cellIs" dxfId="32" priority="80" operator="equal">
+  <conditionalFormatting sqref="F1:F6 F34:F37 F8:F32 F41:F1048576">
+    <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="101" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="102" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="103" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="104" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="105" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="106" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G6 G34:G1048576 G8:G32">
-    <cfRule type="cellIs" dxfId="25" priority="61" operator="equal">
+  <conditionalFormatting sqref="G1:G6 G34:G37 G8:G32 G41:G1048576">
+    <cfRule type="cellIs" dxfId="45" priority="81" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+      <formula>"FIXED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>"Draft"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"In the work queue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Definition Ready"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Under implementation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>"Deletion"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>"Disabled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+      <formula>"Implemented"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"FIXED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G40">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F40">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Draft"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"In the work queue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Definition Ready"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Under implementation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Deletion"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"Disabled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"Implemented"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D55 F3:F6 F8:F9 F12:F17 F19:F37" xr:uid="{43A1A814-D709-4ED4-AEEA-257A065D2120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D55 F3:F6 F8:F9 F12:F17 F19:F40" xr:uid="{43A1A814-D709-4ED4-AEEA-257A065D2120}">
       <formula1>"Draft, Definition Ready, In the work queue, Under implementation, Implemented, Deletion, Disabled"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55" xr:uid="{5D93F6D2-05BA-40F7-90B2-E329CE50BCBC}">
@@ -3800,23 +4172,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="30"/>
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="3"/>
@@ -3831,7 +4203,7 @@
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
       <c r="E4" s="4"/>
@@ -3844,7 +4216,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="3"/>
       <c r="C5" s="9"/>
       <c r="E5" s="4"/>
@@ -3857,7 +4229,7 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
       <c r="E6" s="8"/>
@@ -3870,7 +4242,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
       <c r="E7" s="4"/>
@@ -3883,7 +4255,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="59"/>
       <c r="C8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3894,23 +4266,23 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="30"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="3"/>
@@ -3925,7 +4297,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
@@ -3938,7 +4310,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="E12" s="4"/>
@@ -3951,7 +4323,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="4"/>
@@ -3964,7 +4336,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="E14" s="4"/>
@@ -3977,7 +4349,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="E15" s="4"/>
@@ -3990,7 +4362,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="E16" s="4"/>
@@ -4003,23 +4375,23 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="30"/>
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="59" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="3"/>
@@ -4034,7 +4406,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="4"/>
@@ -4047,7 +4419,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="E20" s="4"/>
@@ -4060,7 +4432,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="4"/>
@@ -4073,7 +4445,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="4"/>
@@ -4086,7 +4458,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="E23" s="4"/>
@@ -4099,7 +4471,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="17"/>
       <c r="C24" s="3"/>
       <c r="E24" s="6"/>
@@ -4112,7 +4484,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="17"/>
       <c r="C25" s="3"/>
       <c r="E25" s="6"/>
@@ -4125,7 +4497,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="17"/>
       <c r="C26" s="3"/>
       <c r="E26" s="6"/>
@@ -4138,7 +4510,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="E27" s="6"/>
@@ -4151,7 +4523,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="17"/>
       <c r="C28" s="3"/>
       <c r="E28" s="6"/>
@@ -4164,7 +4536,7 @@
       <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="17"/>
       <c r="C29" s="3"/>
       <c r="E29" s="6"/>
@@ -4177,7 +4549,7 @@
       <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="17"/>
       <c r="C30" s="3"/>
       <c r="E30" s="6"/>
@@ -4190,7 +4562,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="17"/>
       <c r="C31" s="3"/>
       <c r="E31" s="4"/>
@@ -4203,7 +4575,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="17"/>
       <c r="C32" s="3"/>
       <c r="E32" s="4"/>
@@ -4216,7 +4588,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="17"/>
       <c r="C33" s="3"/>
       <c r="E33" s="4"/>
@@ -4229,7 +4601,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="17"/>
       <c r="C34" s="3"/>
       <c r="E34" s="4"/>
@@ -4242,7 +4614,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="17"/>
       <c r="C35" s="3"/>
       <c r="E35" s="4"/>
@@ -4255,7 +4627,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="17"/>
       <c r="C36" s="12"/>
       <c r="E36" s="4"/>
@@ -4268,7 +4640,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="3"/>
       <c r="C37" s="12"/>
       <c r="E37" s="10"/>
@@ -4281,7 +4653,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="3"/>
       <c r="C38" s="12"/>
       <c r="E38" s="10"/>
@@ -4294,7 +4666,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="17"/>
       <c r="C39" s="3"/>
       <c r="E39" s="4"/>
@@ -4307,7 +4679,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="17"/>
       <c r="C40" s="3"/>
       <c r="E40" s="4"/>
@@ -4320,23 +4692,23 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="30"/>
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="59" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="12"/>
@@ -4352,7 +4724,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="8"/>
@@ -4366,7 +4738,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="8"/>
@@ -4380,7 +4752,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="8"/>
@@ -4394,7 +4766,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="8"/>
@@ -4408,7 +4780,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="8"/>
@@ -4422,10 +4794,10 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="13"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -4438,7 +4810,7 @@
       <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="59" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="3"/>
@@ -4450,7 +4822,7 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:12" s="25" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="26"/>
       <c r="C50" s="3"/>
       <c r="D50" s="8"/>
@@ -4479,7 +4851,7 @@
       <c r="L51" s="22"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="59" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="3"/>
@@ -4493,7 +4865,7 @@
       <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
+      <c r="A53" s="59"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="27"/>
@@ -4505,16 +4877,16 @@
       <c r="K53" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
+      <c r="A62" s="59"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
+      <c r="A63" s="59"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="55"/>
+      <c r="A64" s="59"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="55"/>
+      <c r="A65" s="59"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
@@ -4540,73 +4912,73 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A18:A40"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:E71">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"Discard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G50 G52:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F50 F52:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QualityRules_CityJSON.xlsx
+++ b/QualityRules_CityJSON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATURUNEN\Work Folders\FME+DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3682BF-BE6B-4F07-8712-67DD4775000C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644D176-7A17-4B5B-B552-B21028C0E74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{6FE9F777-6649-4D3C-B271-CDD8A66E49D5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6FE9F777-6649-4D3C-B271-CDD8A66E49D5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="268">
   <si>
     <t>QUALITY ELEMENT</t>
   </si>
@@ -94,9 +94,6 @@
     <t>The value of the attribute XXX must be in the allowed range (A-N)</t>
   </si>
   <si>
-    <t>GeometryValidator -&gt; CheckOGCSimple</t>
-  </si>
-  <si>
     <t>Does the feature contain duplicate concecutive points?</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>ValueNotInAllowedRange</t>
   </si>
   <si>
-    <t>NonPlanarByNormals</t>
-  </si>
-  <si>
-    <t>NonPlanarByThickness</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 	Contains NaNs or Infinities</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
   </si>
   <si>
     <t>Fails OGC Valid</t>
-  </si>
-  <si>
-    <t>GeometryValidator -&gt; CheckAndFixOGCValidCompliant</t>
   </si>
   <si>
     <t>Does the feature has one of the following problems: 
@@ -280,9 +268,6 @@
     <t>Invalid Solid Boundaries</t>
   </si>
   <si>
-    <t>ValidateGeometry -&gt; CheckAndFixSolidBoundaries</t>
-  </si>
-  <si>
     <t>Does the Solid has one of the following problems: 
     -Vertices Not Used
     -Not Enough Faces
@@ -303,9 +288,6 @@
     <t>Invalid Solid Voids</t>
   </si>
   <si>
-    <t>ValidateGeometry -&gt; CheckSolidVoids</t>
-  </si>
-  <si>
     <t>Does the Solid has one of the following problems: 
 -Duplicate Shells
 -Shells Intersect
@@ -470,9 +452,6 @@
   </si>
   <si>
     <t>ValidateAttributes checks that attribute fields and values are logical and follows the recommendation</t>
-  </si>
-  <si>
-    <t>ValidateGeometry -&gt; CheckAndFixNonPlanarity</t>
   </si>
   <si>
     <t>ValidateCRS</t>
@@ -641,9 +620,6 @@
     <t>ValidateGeometry3</t>
   </si>
   <si>
-    <t>ValidateGeometry4</t>
-  </si>
-  <si>
     <t>ValidateGeometry5</t>
   </si>
   <si>
@@ -695,10 +671,6 @@
     <t>There might be some overlapping rules (e.g. intersecting).</t>
   </si>
   <si>
-    <t>See the column 'details' in results table to see more detailed reason for failure. 
-Failed features are fixed automatically because otherwise it would affect to other rules (e.g. OGC Simple).</t>
-  </si>
-  <si>
     <t>See the column 'details' in results table to see more detailed reason for failure.</t>
   </si>
   <si>
@@ -762,19 +734,10 @@
     <t>The geometry must be valid.</t>
   </si>
   <si>
-    <t>Is the Face or BoundarySurface planar based on normal deviation?</t>
-  </si>
-  <si>
     <t>Face or BoundarySurface cannot be curved.</t>
   </si>
   <si>
-    <t>Is the Face or BoundarySurface planar based on thickness?</t>
-  </si>
-  <si>
     <t>The face or BoundarySurface must be planar.</t>
-  </si>
-  <si>
-    <t>The Face or BoundarySurface must be planar.</t>
   </si>
   <si>
     <t>Does the feature has vertex normals?</t>
@@ -971,6 +934,32 @@
   </si>
   <si>
     <t>ValidateGeometry24</t>
+  </si>
+  <si>
+    <t>If duplicates found, only one feature of the duplicates continues forward.</t>
+  </si>
+  <si>
+    <t>GeometryValidator -&gt; CheckAndFixOG</t>
+  </si>
+  <si>
+    <t>See the column 'details' in results table to see more detailed reason for failure. 
+Failed features are fixed automatically because otherwise it would affect to rule of OGC Simple</t>
+  </si>
+  <si>
+    <t>ValidateGeometry -&gt; CheckAndFixSolid</t>
+  </si>
+  <si>
+    <t>ValidateGeometry -&gt; CheckAllOtherProblems</t>
+  </si>
+  <si>
+    <t>Non-Planar Surfaces</t>
+  </si>
+  <si>
+    <t>Is the Face or BoundarySurface planar based on thickness or normal deviation?</t>
+  </si>
+  <si>
+    <t>ValidateGeometry -&gt;
+CheckAreaAndVolume TestIfVolumeSmallerThan</t>
   </si>
 </sst>
 </file>
@@ -1329,11 +1318,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1351,6 +1340,110 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1483,110 +1576,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -2223,7 +2212,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2234,7 +2223,7 @@
     </row>
     <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -2254,20 +2243,20 @@
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2276,10 +2265,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2295,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C7" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2311,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C8" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2327,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C9" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#quality-elements", "Link to wiki page")</f>
@@ -2340,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C10" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2353,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C11" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#implementation-status", "Link to wiki page")</f>
@@ -2366,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C12" s="51" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#error-concequences-severity", "Link to wiki page")</f>
@@ -2378,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C13" s="45"/>
     </row>
@@ -2387,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#usable-key-words-for-error-messages-and-definitions", "Link to wiki page")</f>
@@ -2399,7 +2388,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2411,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="45"/>
     </row>
@@ -2420,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#version-control", "Link to wiki page")</f>
@@ -2439,17 +2428,17 @@
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="43" t="str">
@@ -2463,7 +2452,7 @@
         <v>GitHub Wiki</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C23" s="45"/>
     </row>
@@ -2473,7 +2462,7 @@
         <v>GitHub Repository</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C24" s="45"/>
     </row>
@@ -2483,7 +2472,7 @@
         <v>OGC CityGML Standard</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C25" s="45"/>
     </row>
@@ -2493,7 +2482,7 @@
         <v>SIG3D Modelling Guide for 3D Objects: Part 2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C26" s="45"/>
     </row>
@@ -2503,7 +2492,7 @@
         <v>GeoE3 Project website</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C27" s="45"/>
     </row>
@@ -2525,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD580389-2C7D-4A84-8EED-658C64708058}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2587,85 +2576,87 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="A2" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>103</v>
+      <c r="A3" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="36"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>260</v>
+      </c>
       <c r="L3" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="37">
@@ -2673,67 +2664,67 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="36" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37">
@@ -2741,45 +2732,45 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="A7" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>137</v>
+      <c r="A8" s="58" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>94</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>13</v>
@@ -2788,115 +2779,115 @@
         <v>14</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L8" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L9" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L10" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="A11" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>134</v>
+      <c r="A12" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>11</v>
@@ -2905,34 +2896,34 @@
         <v>9</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L12" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>11</v>
@@ -2941,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>17</v>
@@ -2950,25 +2941,25 @@
         <v>18</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L13" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>11</v>
@@ -2977,34 +2968,34 @@
         <v>9</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L14" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="12" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>11</v>
@@ -3013,34 +3004,34 @@
         <v>9</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L15" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="12" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>11</v>
@@ -3049,34 +3040,34 @@
         <v>9</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L16" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="12" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>11</v>
@@ -3085,139 +3076,139 @@
         <v>9</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L17" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="A18" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
-        <v>104</v>
+      <c r="A19" s="58" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L19" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L20" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+    <row r="21" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K21" s="36"/>
       <c r="L21" s="37">
@@ -3225,137 +3216,137 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K22" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="6"/>
       <c r="L23" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K24" s="36"/>
       <c r="L24" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K25" s="36"/>
       <c r="L25" s="37">
@@ -3363,18 +3354,18 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -3383,32 +3374,32 @@
         <v>9</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
       <c r="B27" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>11</v>
@@ -3417,32 +3408,32 @@
         <v>9</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27" s="36"/>
       <c r="L27" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+    <row r="28" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
       <c r="B28" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
@@ -3451,102 +3442,104 @@
         <v>9</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+    <row r="29" spans="1:12" ht="206.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
       <c r="B29" s="40" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="36"/>
+      <c r="G29" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>262</v>
+      </c>
       <c r="L29" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="206.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58"/>
       <c r="B30" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H30" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="J30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="K30" s="36" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L30" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+    <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
       <c r="B31" s="40" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>11</v>
@@ -3555,34 +3548,34 @@
         <v>9</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L31" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="40" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>11</v>
@@ -3591,106 +3584,104 @@
         <v>9</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L32" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+    <row r="33" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
       <c r="B33" s="40" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>217</v>
+        <v>74</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="L33" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+    <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="58"/>
       <c r="B34" s="40" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>182</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K34" s="36"/>
       <c r="L34" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+    <row r="35" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
       <c r="B35" s="40" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>11</v>
@@ -3699,32 +3690,32 @@
         <v>9</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
       <c r="B36" s="40" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>11</v>
@@ -3733,32 +3724,32 @@
         <v>9</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+    <row r="37" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
       <c r="B37" s="40" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>11</v>
@@ -3767,32 +3758,34 @@
         <v>9</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>248</v>
+      </c>
       <c r="L37" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="40" t="s">
-        <v>254</v>
+    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="58"/>
+      <c r="B38" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>256</v>
+        <v>101</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>11</v>
@@ -3801,34 +3794,32 @@
         <v>9</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>260</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K38" s="36"/>
       <c r="L38" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>11</v>
@@ -3837,66 +3828,43 @@
         <v>9</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37">
-        <v>1</v>
-      </c>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
+      <c r="A46" s="58"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="58"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="36"/>
@@ -3907,21 +3875,10 @@
       <c r="I54" s="36"/>
       <c r="J54" s="42"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A19:A40"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A19:A39"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A18:J18"/>
@@ -3931,17 +3888,17 @@
     <mergeCell ref="A12:A17"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="58" priority="177" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D55">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="cellIs" dxfId="57" priority="176" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E55">
+  <conditionalFormatting sqref="E53:E54">
     <cfRule type="cellIs" dxfId="56" priority="174" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
@@ -3949,7 +3906,7 @@
       <formula>"Discard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G6 G34:G37 G8:G32 G41:G1048576">
+  <conditionalFormatting sqref="G1:G6 G33:G36 G40:G1048576 G8:G31">
     <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -3957,7 +3914,7 @@
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F6 F34:F37 F8:F32 F41:F1048576">
+  <conditionalFormatting sqref="F1:F6 F33:F36 F40:F1048576 F8:F31">
     <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
@@ -3980,12 +3937,12 @@
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G6 G34:G37 G8:G32 G41:G1048576">
+  <conditionalFormatting sqref="G1:G6 G33:G36 G40:G1048576 G8:G31">
     <cfRule type="cellIs" dxfId="45" priority="81" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -3993,7 +3950,7 @@
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
@@ -4016,88 +3973,88 @@
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G32">
     <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G40">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="G38:G39">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F40">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="F38:F39">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="G38:G39">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FIXED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D55 F3:F6 F8:F9 F12:F17 F19:F40" xr:uid="{43A1A814-D709-4ED4-AEEA-257A065D2120}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 F3:F6 F8:F9 F12:F17 F19:F39" xr:uid="{43A1A814-D709-4ED4-AEEA-257A065D2120}">
       <formula1>"Draft, Definition Ready, In the work queue, Under implementation, Implemented, Deletion, Disabled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55" xr:uid="{5D93F6D2-05BA-40F7-90B2-E329CE50BCBC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E54" xr:uid="{5D93F6D2-05BA-40F7-90B2-E329CE50BCBC}">
       <formula1>"Note, Discard, ?"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid severity level" error="Only fail, note and fail/fixed are allowed" sqref="G1:G1048576" xr:uid="{0D6D2421-F895-44B0-9D4D-16B3BA193192}">
@@ -4135,7 +4092,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4173,7 +4130,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -4188,8 +4145,8 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>103</v>
+      <c r="A3" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="9"/>
@@ -4203,7 +4160,7 @@
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
       <c r="E4" s="4"/>
@@ -4216,7 +4173,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="3"/>
       <c r="C5" s="9"/>
       <c r="E5" s="4"/>
@@ -4229,7 +4186,7 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
       <c r="E6" s="8"/>
@@ -4242,7 +4199,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
       <c r="E7" s="4"/>
@@ -4255,7 +4212,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="58"/>
       <c r="C8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4267,7 +4224,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -4282,8 +4239,8 @@
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
-        <v>134</v>
+      <c r="A10" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4297,7 +4254,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
@@ -4310,7 +4267,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="E12" s="4"/>
@@ -4323,7 +4280,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="4"/>
@@ -4336,7 +4293,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="E14" s="4"/>
@@ -4349,7 +4306,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="E15" s="4"/>
@@ -4362,7 +4319,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="E16" s="4"/>
@@ -4376,7 +4333,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -4391,8 +4348,8 @@
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>104</v>
+      <c r="A18" s="58" t="s">
+        <v>98</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4406,7 +4363,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="4"/>
@@ -4419,7 +4376,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="E20" s="4"/>
@@ -4432,7 +4389,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="4"/>
@@ -4445,7 +4402,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="4"/>
@@ -4458,7 +4415,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="E23" s="4"/>
@@ -4471,7 +4428,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="17"/>
       <c r="C24" s="3"/>
       <c r="E24" s="6"/>
@@ -4484,7 +4441,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="17"/>
       <c r="C25" s="3"/>
       <c r="E25" s="6"/>
@@ -4497,7 +4454,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="17"/>
       <c r="C26" s="3"/>
       <c r="E26" s="6"/>
@@ -4510,7 +4467,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="17"/>
       <c r="C27" s="3"/>
       <c r="E27" s="6"/>
@@ -4523,7 +4480,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="17"/>
       <c r="C28" s="3"/>
       <c r="E28" s="6"/>
@@ -4536,7 +4493,7 @@
       <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="17"/>
       <c r="C29" s="3"/>
       <c r="E29" s="6"/>
@@ -4549,7 +4506,7 @@
       <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="17"/>
       <c r="C30" s="3"/>
       <c r="E30" s="6"/>
@@ -4562,7 +4519,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="17"/>
       <c r="C31" s="3"/>
       <c r="E31" s="4"/>
@@ -4575,7 +4532,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="17"/>
       <c r="C32" s="3"/>
       <c r="E32" s="4"/>
@@ -4588,7 +4545,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="17"/>
       <c r="C33" s="3"/>
       <c r="E33" s="4"/>
@@ -4601,7 +4558,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="17"/>
       <c r="C34" s="3"/>
       <c r="E34" s="4"/>
@@ -4614,7 +4571,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="17"/>
       <c r="C35" s="3"/>
       <c r="E35" s="4"/>
@@ -4627,7 +4584,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="17"/>
       <c r="C36" s="12"/>
       <c r="E36" s="4"/>
@@ -4640,7 +4597,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="3"/>
       <c r="C37" s="12"/>
       <c r="E37" s="10"/>
@@ -4653,7 +4610,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="3"/>
       <c r="C38" s="12"/>
       <c r="E38" s="10"/>
@@ -4666,7 +4623,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="17"/>
       <c r="C39" s="3"/>
       <c r="E39" s="4"/>
@@ -4679,7 +4636,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="17"/>
       <c r="C40" s="3"/>
       <c r="E40" s="4"/>
@@ -4693,7 +4650,7 @@
     </row>
     <row r="41" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -4708,8 +4665,8 @@
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
-        <v>105</v>
+      <c r="A42" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -4724,7 +4681,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="8"/>
@@ -4738,7 +4695,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="8"/>
@@ -4752,7 +4709,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="8"/>
@@ -4766,7 +4723,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="8"/>
@@ -4780,7 +4737,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="8"/>
@@ -4795,7 +4752,7 @@
     </row>
     <row r="48" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="13"/>
@@ -4810,8 +4767,8 @@
       <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
-        <v>133</v>
+      <c r="A49" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4822,7 +4779,7 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:12" s="25" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="26"/>
       <c r="C50" s="3"/>
       <c r="D50" s="8"/>
@@ -4836,7 +4793,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="13"/>
@@ -4851,8 +4808,8 @@
       <c r="L51" s="22"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
-        <v>132</v>
+      <c r="A52" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -4865,7 +4822,7 @@
       <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="58"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="27"/>
@@ -4877,16 +4834,16 @@
       <c r="K53" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
+      <c r="A62" s="58"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
+      <c r="A63" s="58"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="59"/>
+      <c r="A64" s="58"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="59"/>
+      <c r="A65" s="58"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
@@ -4926,59 +4883,59 @@
     <mergeCell ref="A17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:E71">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Discard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G50 G52:G1048576">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F50 F52:F1048576">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Draft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"In the work queue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Definition Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Under implementation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Deletion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Disabled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QualityRules_CityJSON.xlsx
+++ b/QualityRules_CityJSON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATURUNEN\Work Folders\FME+DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644D176-7A17-4B5B-B552-B21028C0E74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD6319-8EB0-4016-AC11-D4F699197EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6FE9F777-6649-4D3C-B271-CDD8A66E49D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="269">
   <si>
     <t>QUALITY ELEMENT</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attribute information XXX must have value based on data model. </t>
-  </si>
-  <si>
-    <t>The value of the attribute XXX is not in allowed range (A-N)? </t>
   </si>
   <si>
     <t>The value of the attribute XXX must be in the allowed range (A-N)</t>
@@ -317,9 +314,6 @@
     <t>Rule category groups the rules based on their FME implementation.</t>
   </si>
   <si>
-    <t>The following attribute values cannot be null, missing, or empty: XXX, XXX</t>
-  </si>
-  <si>
     <t>Not3D</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
   </si>
   <si>
     <t>Does attribute information X have correct data type?</t>
-  </si>
-  <si>
-    <t>Data type of attribute XXX is not valid according to specifications.</t>
   </si>
   <si>
     <t>Data type of attribute information XXX must be valid.</t>
@@ -960,6 +951,18 @@
   <si>
     <t>ValidateGeometry -&gt;
 CheckAreaAndVolume TestIfVolumeSmallerThan</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>At least X attribute(s) is/are missing</t>
+  </si>
+  <si>
+    <t>At least X attribute(s) is/are not in allowed range</t>
+  </si>
+  <si>
+    <t>At least X attribute(s) has/have a wrong data type</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="2" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -2243,20 +2246,20 @@
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2265,10 +2268,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2284,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2300,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#quality-elements", "Link to wiki page")</f>
@@ -2329,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2342,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#implementation-status", "Link to wiki page")</f>
@@ -2355,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" s="51" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#error-concequences-severity", "Link to wiki page")</f>
@@ -2367,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="45"/>
     </row>
@@ -2376,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#usable-key-words-for-error-messages-and-definitions", "Link to wiki page")</f>
@@ -2388,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15" s="45" t="str">
         <f>HYPERLINK("")</f>
@@ -2400,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="45"/>
     </row>
@@ -2409,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="45" t="str">
         <f>HYPERLINK("https://github.com/opengeospatial/GEOE3/wiki/Quality_Rules#version-control", "Link to wiki page")</f>
@@ -2428,17 +2431,17 @@
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="43" t="str">
@@ -2452,7 +2455,7 @@
         <v>GitHub Wiki</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C23" s="45"/>
     </row>
@@ -2462,7 +2465,7 @@
         <v>GitHub Repository</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C24" s="45"/>
     </row>
@@ -2472,7 +2475,7 @@
         <v>OGC CityGML Standard</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" s="45"/>
     </row>
@@ -2482,7 +2485,7 @@
         <v>SIG3D Modelling Guide for 3D Objects: Part 2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" s="45"/>
     </row>
@@ -2492,7 +2495,7 @@
         <v>GeoE3 Project website</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27" s="45"/>
     </row>
@@ -2516,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD580389-2C7D-4A84-8EED-658C64708058}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -2593,37 +2596,37 @@
     </row>
     <row r="3" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L3" s="37">
         <v>1</v>
@@ -2632,31 +2635,31 @@
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="37">
@@ -2666,34 +2669,34 @@
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L5" s="37">
         <v>1</v>
@@ -2702,29 +2705,29 @@
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37">
@@ -2733,7 +2736,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -2749,28 +2752,28 @@
     </row>
     <row r="8" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>13</v>
@@ -2779,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L8" s="37">
         <v>1</v>
@@ -2788,34 +2791,34 @@
     <row r="9" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="K9" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L9" s="37">
         <v>1</v>
@@ -2824,34 +2827,34 @@
     <row r="10" spans="1:12" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L10" s="54">
         <v>1</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -2875,19 +2878,19 @@
     </row>
     <row r="12" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>11</v>
@@ -2896,16 +2899,16 @@
         <v>9</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L12" s="37">
         <v>1</v>
@@ -2914,16 +2917,16 @@
     <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>11</v>
@@ -2932,16 +2935,16 @@
         <v>9</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I13" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L13" s="37">
         <v>1</v>
@@ -2950,16 +2953,16 @@
     <row r="14" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>11</v>
@@ -2968,16 +2971,16 @@
         <v>9</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L14" s="37">
         <v>1</v>
@@ -2986,16 +2989,16 @@
     <row r="15" spans="1:12" s="7" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>11</v>
@@ -3004,16 +3007,16 @@
         <v>9</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L15" s="37">
         <v>1</v>
@@ -3022,16 +3025,16 @@
     <row r="16" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>11</v>
@@ -3040,16 +3043,16 @@
         <v>9</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L16" s="37">
         <v>1</v>
@@ -3058,16 +3061,16 @@
     <row r="17" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>11</v>
@@ -3076,16 +3079,16 @@
         <v>9</v>
       </c>
       <c r="H17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="J17" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="36" t="s">
         <v>220</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>223</v>
       </c>
       <c r="L17" s="37">
         <v>1</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3109,37 +3112,37 @@
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I19" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>195</v>
-      </c>
       <c r="K19" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19" s="37">
         <v>1</v>
@@ -3148,34 +3151,34 @@
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="37">
         <v>1</v>
@@ -3184,16 +3187,16 @@
     <row r="21" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>11</v>
@@ -3202,13 +3205,13 @@
         <v>9</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K21" s="36"/>
       <c r="L21" s="37">
@@ -3218,31 +3221,31 @@
     <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>40</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="37">
@@ -3252,34 +3255,34 @@
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="K23" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="37">
         <v>1</v>
@@ -3288,31 +3291,31 @@
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="37">
@@ -3322,16 +3325,16 @@
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -3340,13 +3343,13 @@
         <v>9</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="36"/>
       <c r="L25" s="37">
@@ -3356,16 +3359,16 @@
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -3374,13 +3377,13 @@
         <v>9</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="37">
@@ -3390,16 +3393,16 @@
     <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>11</v>
@@ -3408,13 +3411,13 @@
         <v>9</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="36"/>
       <c r="L27" s="37">
@@ -3424,16 +3427,16 @@
     <row r="28" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
@@ -3442,13 +3445,13 @@
         <v>9</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="37">
@@ -3458,34 +3461,34 @@
     <row r="29" spans="1:12" ht="206.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="36" t="s">
+      <c r="I29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="J29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>67</v>
-      </c>
       <c r="K29" s="36" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L29" s="37">
         <v>1</v>
@@ -3494,34 +3497,34 @@
     <row r="30" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="J30" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>70</v>
-      </c>
       <c r="K30" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L30" s="37">
         <v>1</v>
@@ -3530,16 +3533,16 @@
     <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>11</v>
@@ -3548,16 +3551,16 @@
         <v>9</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L31" s="37">
         <v>1</v>
@@ -3566,16 +3569,16 @@
     <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>11</v>
@@ -3584,16 +3587,16 @@
         <v>9</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L32" s="37">
         <v>1</v>
@@ -3602,34 +3605,34 @@
     <row r="33" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H33" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>74</v>
-      </c>
       <c r="K33" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L33" s="37">
         <v>1</v>
@@ -3638,16 +3641,16 @@
     <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>11</v>
@@ -3656,13 +3659,13 @@
         <v>9</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="37">
@@ -3672,16 +3675,16 @@
     <row r="35" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>11</v>
@@ -3690,13 +3693,13 @@
         <v>9</v>
       </c>
       <c r="H35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="36" t="s">
         <v>76</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>77</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="37">
@@ -3706,16 +3709,16 @@
     <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>11</v>
@@ -3724,13 +3727,13 @@
         <v>9</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="37">
@@ -3740,16 +3743,16 @@
     <row r="37" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>11</v>
@@ -3758,16 +3761,16 @@
         <v>9</v>
       </c>
       <c r="H37" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="J37" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>248</v>
       </c>
       <c r="L37" s="37">
         <v>1</v>
@@ -3776,16 +3779,16 @@
     <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>11</v>
@@ -3794,13 +3797,13 @@
         <v>9</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="37">
@@ -3810,16 +3813,16 @@
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="D39" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>11</v>
@@ -3828,13 +3831,13 @@
         <v>9</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="37">
@@ -4092,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="9"/>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4333,7 +4336,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -4349,7 +4352,7 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="41" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -4666,7 +4669,7 @@
     </row>
     <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="48" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="13"/>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="13"/>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -4869,18 +4872,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A18:A40"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A41:J41"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A18:A40"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="D70:D71">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
